--- a/src/test/resources/testData/Keywords.xlsx
+++ b/src/test/resources/testData/Keywords.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emirzayev\Documents\Main Framework\YFramework\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\Projects\MyFrameworkPractice\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3AAA2E-B14E-4A4C-80D1-F008D7E764AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F2F1D-E941-454A-926C-5BD0BD1C9443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,36 +25,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Michelle</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>Names</t>
-  </si>
-  <si>
-    <t>Mudriy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+  <si>
+    <t>ExpenseDate</t>
+  </si>
+  <si>
+    <t>ExpenseName</t>
+  </si>
+  <si>
+    <t>ExpenseAmount</t>
+  </si>
+  <si>
+    <t>ExpenseRelationship</t>
+  </si>
+  <si>
+    <t>BusinessPurpose</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>Mama's Kitchen</t>
+  </si>
+  <si>
+    <t>Maven Chicken</t>
+  </si>
+  <si>
+    <t>Apache Pizza</t>
+  </si>
+  <si>
+    <t>Jenkins BBQ</t>
+  </si>
+  <si>
+    <t>business lunch</t>
+  </si>
+  <si>
+    <t>Yoll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,8 +107,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,46 +398,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B2" s="1">
+        <v>250.75</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B3" s="1">
+        <v>380.99</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B4" s="1">
+        <v>558.96</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B5" s="1">
+        <v>365.96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>